--- a/Code/Results/Cases/Case_2_122/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_122/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9896634371315445</v>
+        <v>1.021075889624625</v>
       </c>
       <c r="D2">
-        <v>1.009758349961288</v>
+        <v>1.025362066925665</v>
       </c>
       <c r="E2">
-        <v>1.001043006240024</v>
+        <v>1.046575217321456</v>
       </c>
       <c r="F2">
-        <v>1.003094093132678</v>
+        <v>1.050310168808472</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041468519634722</v>
+        <v>1.027980029273226</v>
       </c>
       <c r="J2">
-        <v>1.012157770564877</v>
+        <v>1.026269399659629</v>
       </c>
       <c r="K2">
-        <v>1.021083389111805</v>
+        <v>1.028187860595328</v>
       </c>
       <c r="L2">
-        <v>1.012487829429139</v>
+        <v>1.049340269291631</v>
       </c>
       <c r="M2">
-        <v>1.014510489973997</v>
+        <v>1.053064801641427</v>
       </c>
       <c r="N2">
-        <v>1.013595150695186</v>
+        <v>1.027726819921891</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9943749605693322</v>
+        <v>1.022031439966696</v>
       </c>
       <c r="D3">
-        <v>1.013113148257154</v>
+        <v>1.026040804710364</v>
       </c>
       <c r="E3">
-        <v>1.006774316281513</v>
+        <v>1.047855161132216</v>
       </c>
       <c r="F3">
-        <v>1.009191848625192</v>
+        <v>1.051667638027931</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042670373938337</v>
+        <v>1.028124167480241</v>
       </c>
       <c r="J3">
-        <v>1.015020153337331</v>
+        <v>1.026862381116127</v>
       </c>
       <c r="K3">
-        <v>1.023580948860243</v>
+        <v>1.028674234398509</v>
       </c>
       <c r="L3">
-        <v>1.017321246090478</v>
+        <v>1.050430667270378</v>
       </c>
       <c r="M3">
-        <v>1.019708453614697</v>
+        <v>1.054233287173958</v>
       </c>
       <c r="N3">
-        <v>1.016461598379509</v>
+        <v>1.028320643480074</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9973510898811293</v>
+        <v>1.022649248253463</v>
       </c>
       <c r="D4">
-        <v>1.015231447100922</v>
+        <v>1.026479088988873</v>
       </c>
       <c r="E4">
-        <v>1.010401568386573</v>
+        <v>1.04868391329289</v>
       </c>
       <c r="F4">
-        <v>1.013049753319985</v>
+        <v>1.052546475299208</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043412732739484</v>
+        <v>1.028215222617617</v>
       </c>
       <c r="J4">
-        <v>1.016822798625099</v>
+        <v>1.027245005041265</v>
       </c>
       <c r="K4">
-        <v>1.025149452995204</v>
+        <v>1.028987371963658</v>
       </c>
       <c r="L4">
-        <v>1.020376055900345</v>
+        <v>1.051136219262722</v>
       </c>
       <c r="M4">
-        <v>1.022993189900401</v>
+        <v>1.054989303450709</v>
       </c>
       <c r="N4">
-        <v>1.018266803630352</v>
+        <v>1.028703810775073</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9985855459976125</v>
+        <v>1.022908855864591</v>
       </c>
       <c r="D5">
-        <v>1.016109815039161</v>
+        <v>1.026663126212781</v>
       </c>
       <c r="E5">
-        <v>1.011907897634209</v>
+        <v>1.049032452619543</v>
       </c>
       <c r="F5">
-        <v>1.014651565132394</v>
+        <v>1.05291605156019</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043716548868427</v>
+        <v>1.028252972082331</v>
       </c>
       <c r="J5">
-        <v>1.017569171026238</v>
+        <v>1.027405602504602</v>
       </c>
       <c r="K5">
-        <v>1.025797795255272</v>
+        <v>1.029118636363912</v>
       </c>
       <c r="L5">
-        <v>1.021643647719077</v>
+        <v>1.051432832982444</v>
       </c>
       <c r="M5">
-        <v>1.024356068319058</v>
+        <v>1.055307117109532</v>
       </c>
       <c r="N5">
-        <v>1.019014235965911</v>
+        <v>1.028864636305229</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9987918552184637</v>
+        <v>1.022952438144353</v>
       </c>
       <c r="D6">
-        <v>1.016256594694467</v>
+        <v>1.026694014090774</v>
       </c>
       <c r="E6">
-        <v>1.012159753071852</v>
+        <v>1.049090981698313</v>
       </c>
       <c r="F6">
-        <v>1.014919367266224</v>
+        <v>1.052978111729652</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043767081036431</v>
+        <v>1.028259279280386</v>
       </c>
       <c r="J6">
-        <v>1.017693829215078</v>
+        <v>1.027432552407368</v>
       </c>
       <c r="K6">
-        <v>1.025906015755329</v>
+        <v>1.029140654011613</v>
       </c>
       <c r="L6">
-        <v>1.021855526875427</v>
+        <v>1.051482635760071</v>
       </c>
       <c r="M6">
-        <v>1.02458386737504</v>
+        <v>1.055360478555462</v>
       </c>
       <c r="N6">
-        <v>1.019139071183677</v>
+        <v>1.028891624479948</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9973676495549685</v>
+        <v>1.022652717610761</v>
       </c>
       <c r="D7">
-        <v>1.015243231184178</v>
+        <v>1.026481548959085</v>
       </c>
       <c r="E7">
-        <v>1.010421767848541</v>
+        <v>1.048688569971656</v>
       </c>
       <c r="F7">
-        <v>1.013071234374206</v>
+        <v>1.052551413148492</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043416824610397</v>
+        <v>1.028215729111551</v>
       </c>
       <c r="J7">
-        <v>1.016832816215377</v>
+        <v>1.027247151965218</v>
       </c>
       <c r="K7">
-        <v>1.025158159192995</v>
+        <v>1.028989127413632</v>
       </c>
       <c r="L7">
-        <v>1.020393057974168</v>
+        <v>1.051140182628998</v>
       </c>
       <c r="M7">
-        <v>1.02301147053234</v>
+        <v>1.054993550151551</v>
       </c>
       <c r="N7">
-        <v>1.018276835446756</v>
+        <v>1.028705960747904</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9912711473950814</v>
+        <v>1.021398925129132</v>
       </c>
       <c r="D8">
-        <v>1.010903233767568</v>
+        <v>1.025591636239618</v>
       </c>
       <c r="E8">
-        <v>1.00299731647839</v>
+        <v>1.047007669076055</v>
       </c>
       <c r="F8">
-        <v>1.005173622771953</v>
+        <v>1.050768837040347</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041882120253987</v>
+        <v>1.028029199104545</v>
       </c>
       <c r="J8">
-        <v>1.013135621099151</v>
+        <v>1.026470022846452</v>
       </c>
       <c r="K8">
-        <v>1.021937511818074</v>
+        <v>1.028352559408285</v>
       </c>
       <c r="L8">
-        <v>1.014136839706258</v>
+        <v>1.049708777144681</v>
       </c>
       <c r="M8">
-        <v>1.016283967152836</v>
+        <v>1.053459712700611</v>
       </c>
       <c r="N8">
-        <v>1.014574389889392</v>
+        <v>1.027927728016651</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9799410583258236</v>
+        <v>1.019185781291819</v>
       </c>
       <c r="D9">
-        <v>1.002834478141953</v>
+        <v>1.024016610580602</v>
       </c>
       <c r="E9">
-        <v>0.9892486778077799</v>
+        <v>1.044049778065955</v>
       </c>
       <c r="F9">
-        <v>0.9905386512214367</v>
+        <v>1.047631172954742</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038898330576682</v>
+        <v>1.027683593521821</v>
       </c>
       <c r="J9">
-        <v>1.006222591656923</v>
+        <v>1.025092405115136</v>
       </c>
       <c r="K9">
-        <v>1.015881734703667</v>
+        <v>1.027218781733771</v>
       </c>
       <c r="L9">
-        <v>1.002518629902093</v>
+        <v>1.047186318117073</v>
       </c>
       <c r="M9">
-        <v>1.003787120333731</v>
+        <v>1.050756269410039</v>
       </c>
       <c r="N9">
-        <v>1.00765154315242</v>
+        <v>1.026548153910142</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9719449158926793</v>
+        <v>1.017707795927658</v>
       </c>
       <c r="D10">
-        <v>0.9971432146015391</v>
+        <v>1.02296201691735</v>
       </c>
       <c r="E10">
-        <v>0.9795695118766568</v>
+        <v>1.042080464121078</v>
       </c>
       <c r="F10">
-        <v>0.9802285676355976</v>
+        <v>1.045541596457992</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036707716136713</v>
+        <v>1.027441848423023</v>
       </c>
       <c r="J10">
-        <v>1.001317612867997</v>
+        <v>1.024168485045393</v>
       </c>
       <c r="K10">
-        <v>1.011564241475216</v>
+        <v>1.02645485471853</v>
       </c>
       <c r="L10">
-        <v>0.9943177100336161</v>
+        <v>1.045504477662009</v>
       </c>
       <c r="M10">
-        <v>0.9949642191747275</v>
+        <v>1.048953446877787</v>
       </c>
       <c r="N10">
-        <v>1.002739598731005</v>
+        <v>1.025622921767925</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9683656292194028</v>
+        <v>1.017067204313006</v>
       </c>
       <c r="D11">
-        <v>0.994597666724756</v>
+        <v>1.02250429107664</v>
       </c>
       <c r="E11">
-        <v>0.9752401254419509</v>
+        <v>1.04122832109892</v>
       </c>
       <c r="F11">
-        <v>0.9756153167510064</v>
+        <v>1.044637279102023</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03570802078304</v>
+        <v>1.027334486340885</v>
       </c>
       <c r="J11">
-        <v>0.9991163342484912</v>
+        <v>1.023767113526774</v>
       </c>
       <c r="K11">
-        <v>1.009622187364343</v>
+        <v>1.026122157257685</v>
       </c>
       <c r="L11">
-        <v>0.9906445860505395</v>
+        <v>1.044776150001431</v>
       </c>
       <c r="M11">
-        <v>0.9910122246816263</v>
+        <v>1.048172655415035</v>
       </c>
       <c r="N11">
-        <v>1.000535194043369</v>
+        <v>1.025220980255711</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9670174474113096</v>
+        <v>1.016829167532578</v>
       </c>
       <c r="D12">
-        <v>0.9936392703023442</v>
+        <v>1.0223341098291</v>
       </c>
       <c r="E12">
-        <v>0.9736096752117441</v>
+        <v>1.040911882302744</v>
       </c>
       <c r="F12">
-        <v>0.9738777116012259</v>
+        <v>1.044301445321868</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03532868973779</v>
+        <v>1.027294204344689</v>
       </c>
       <c r="J12">
-        <v>0.9982863887469655</v>
+        <v>1.023617829855535</v>
       </c>
       <c r="K12">
-        <v>1.008889354939987</v>
+        <v>1.02599829178995</v>
       </c>
       <c r="L12">
-        <v>0.9892605599773102</v>
+        <v>1.04450560252284</v>
       </c>
       <c r="M12">
-        <v>0.9895230892444213</v>
+        <v>1.047882608854049</v>
       </c>
       <c r="N12">
-        <v>0.9997040699240353</v>
+        <v>1.025071484584535</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9673075009971134</v>
+        <v>1.016880231421524</v>
       </c>
       <c r="D13">
-        <v>0.9938454431756281</v>
+        <v>1.022370621580419</v>
       </c>
       <c r="E13">
-        <v>0.9739604490593978</v>
+        <v>1.040979755689764</v>
       </c>
       <c r="F13">
-        <v>0.9742515500604118</v>
+        <v>1.044373479684499</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035410424906305</v>
+        <v>1.027302863196618</v>
       </c>
       <c r="J13">
-        <v>0.9984649824631893</v>
+        <v>1.023649860596635</v>
       </c>
       <c r="K13">
-        <v>1.009047078532234</v>
+        <v>1.026024874325386</v>
       </c>
       <c r="L13">
-        <v>0.9895583507501641</v>
+        <v>1.044563636551234</v>
       </c>
       <c r="M13">
-        <v>0.9898434968493274</v>
+        <v>1.047944826030949</v>
       </c>
       <c r="N13">
-        <v>0.9998829172638211</v>
+        <v>1.025103560812963</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9682545758334026</v>
+        <v>1.017047530007631</v>
       </c>
       <c r="D14">
-        <v>0.994518711915124</v>
+        <v>1.022490227131749</v>
       </c>
       <c r="E14">
-        <v>0.9751058168126238</v>
+        <v>1.041202162448581</v>
       </c>
       <c r="F14">
-        <v>0.9754721863317616</v>
+        <v>1.044609517565214</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035676830273883</v>
+        <v>1.027331164835882</v>
       </c>
       <c r="J14">
-        <v>0.9990479855136174</v>
+        <v>1.02375477769828</v>
       </c>
       <c r="K14">
-        <v>1.009561848583893</v>
+        <v>1.026111924347963</v>
       </c>
       <c r="L14">
-        <v>0.9905305912690381</v>
+        <v>1.044753786763931</v>
       </c>
       <c r="M14">
-        <v>0.9908895731740232</v>
+        <v>1.048148680615827</v>
       </c>
       <c r="N14">
-        <v>1.000466748245453</v>
+        <v>1.025208626908926</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9688355903440399</v>
+        <v>1.017150595918803</v>
       </c>
       <c r="D15">
-        <v>0.9949318091209001</v>
+        <v>1.022563898682307</v>
       </c>
       <c r="E15">
-        <v>0.9758085086696273</v>
+        <v>1.041339205789619</v>
       </c>
       <c r="F15">
-        <v>0.9762210228313674</v>
+        <v>1.04475495748432</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035839901473352</v>
+        <v>1.027348549029351</v>
       </c>
       <c r="J15">
-        <v>0.9994055431589355</v>
+        <v>1.023819394562758</v>
       </c>
       <c r="K15">
-        <v>1.00987747812017</v>
+        <v>1.026165520746784</v>
       </c>
       <c r="L15">
-        <v>0.9911269733137914</v>
+        <v>1.044870942644225</v>
       </c>
       <c r="M15">
-        <v>0.9915312430665454</v>
+        <v>1.048274278662804</v>
       </c>
       <c r="N15">
-        <v>1.000824813663639</v>
+        <v>1.025273335536762</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9721799055808532</v>
+        <v>1.017750296921316</v>
       </c>
       <c r="D16">
-        <v>0.9973103878020911</v>
+        <v>1.022992371986897</v>
       </c>
       <c r="E16">
-        <v>0.979853797016372</v>
+        <v>1.04213703011396</v>
       </c>
       <c r="F16">
-        <v>0.9805314577779664</v>
+        <v>1.045601622976282</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036772958722068</v>
+        <v>1.027448917160966</v>
       </c>
       <c r="J16">
-        <v>1.001462018437266</v>
+        <v>1.024195095201164</v>
       </c>
       <c r="K16">
-        <v>1.011691553331308</v>
+        <v>1.026476894507256</v>
       </c>
       <c r="L16">
-        <v>0.9945588010039004</v>
+        <v>1.045552812505205</v>
       </c>
       <c r="M16">
-        <v>0.9952236091960505</v>
+        <v>1.049005261931772</v>
       </c>
       <c r="N16">
-        <v>1.002884209372747</v>
+        <v>1.025649569713169</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9742456521390417</v>
+        <v>1.018126308900853</v>
       </c>
       <c r="D17">
-        <v>0.9987802150517012</v>
+        <v>1.023260853399593</v>
       </c>
       <c r="E17">
-        <v>0.9823532355598553</v>
+        <v>1.042637638525161</v>
       </c>
       <c r="F17">
-        <v>0.9831942828708086</v>
+        <v>1.04613284134947</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037344333394222</v>
+        <v>1.027511156932928</v>
       </c>
       <c r="J17">
-        <v>1.002730819234711</v>
+        <v>1.024430412162059</v>
       </c>
       <c r="K17">
-        <v>1.012809665372102</v>
+        <v>1.026671699455037</v>
       </c>
       <c r="L17">
-        <v>0.9966779167603235</v>
+        <v>1.045980508586213</v>
       </c>
       <c r="M17">
-        <v>0.9975035364524824</v>
+        <v>1.049463744731829</v>
       </c>
       <c r="N17">
-        <v>1.004154812012857</v>
+        <v>1.02588522085114</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9754393675842064</v>
+        <v>1.018345571083418</v>
       </c>
       <c r="D18">
-        <v>0.9996297544415109</v>
+        <v>1.023417349828975</v>
       </c>
       <c r="E18">
-        <v>0.983797889622165</v>
+        <v>1.042929691353049</v>
       </c>
       <c r="F18">
-        <v>0.9847332158370627</v>
+        <v>1.046442738823255</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037672694557769</v>
+        <v>1.027547201260591</v>
       </c>
       <c r="J18">
-        <v>1.003463470112125</v>
+        <v>1.024567542352032</v>
       </c>
       <c r="K18">
-        <v>1.013454881867865</v>
+        <v>1.026785141373951</v>
       </c>
       <c r="L18">
-        <v>0.9979022787349549</v>
+        <v>1.046229968936803</v>
       </c>
       <c r="M18">
-        <v>0.9988207822453261</v>
+        <v>1.049731154952189</v>
       </c>
       <c r="N18">
-        <v>1.004888503338553</v>
+        <v>1.026022545781712</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9758445262826311</v>
+        <v>1.018420323780328</v>
       </c>
       <c r="D19">
-        <v>0.9999181241764249</v>
+        <v>1.023470693364078</v>
       </c>
       <c r="E19">
-        <v>0.9842882807848303</v>
+        <v>1.043029283464703</v>
       </c>
       <c r="F19">
-        <v>0.9852555835859534</v>
+        <v>1.046548413868462</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037783833217122</v>
+        <v>1.02755944748741</v>
       </c>
       <c r="J19">
-        <v>1.003712045996075</v>
+        <v>1.024614278792123</v>
       </c>
       <c r="K19">
-        <v>1.013673720034572</v>
+        <v>1.026823790826721</v>
       </c>
       <c r="L19">
-        <v>0.9983178112269258</v>
+        <v>1.046315027257829</v>
       </c>
       <c r="M19">
-        <v>0.999267833151197</v>
+        <v>1.049822332442568</v>
       </c>
       <c r="N19">
-        <v>1.00513743222877</v>
+        <v>1.026069348592908</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9740251832388285</v>
+        <v>1.01808597250348</v>
       </c>
       <c r="D20">
-        <v>0.9986233264909031</v>
+        <v>1.023232058661052</v>
       </c>
       <c r="E20">
-        <v>0.9820864482680602</v>
+        <v>1.0425839221633</v>
       </c>
       <c r="F20">
-        <v>0.982910072200503</v>
+        <v>1.046075841824926</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037283540568348</v>
+        <v>1.027504505988919</v>
       </c>
       <c r="J20">
-        <v>1.00259546094346</v>
+        <v>1.024405177933024</v>
       </c>
       <c r="K20">
-        <v>1.012690426313886</v>
+        <v>1.026650817809298</v>
       </c>
       <c r="L20">
-        <v>0.9964517732387247</v>
+        <v>1.04593462163957</v>
       </c>
       <c r="M20">
-        <v>0.9972602346257942</v>
+        <v>1.049414555437653</v>
       </c>
       <c r="N20">
-        <v>1.004019261497306</v>
+        <v>1.025859950786605</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9679762108447106</v>
+        <v>1.016998267300286</v>
       </c>
       <c r="D21">
-        <v>0.9943208118820245</v>
+        <v>1.022455010730013</v>
       </c>
       <c r="E21">
-        <v>0.9747691640065121</v>
+        <v>1.041136666873468</v>
       </c>
       <c r="F21">
-        <v>0.9751134171159893</v>
+        <v>1.044540008382551</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03559860403617</v>
+        <v>1.027322841828184</v>
       </c>
       <c r="J21">
-        <v>0.9988766506183671</v>
+        <v>1.023723887648199</v>
       </c>
       <c r="K21">
-        <v>1.009410582980151</v>
+        <v>1.02608629820006</v>
       </c>
       <c r="L21">
-        <v>0.9902448447607443</v>
+        <v>1.04469779267407</v>
       </c>
       <c r="M21">
-        <v>0.9905821267059592</v>
+        <v>1.048088651252705</v>
       </c>
       <c r="N21">
-        <v>1.000295170034998</v>
+        <v>1.025177692991431</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9640643087993637</v>
+        <v>1.016313848369878</v>
       </c>
       <c r="D22">
-        <v>0.9915408349482593</v>
+        <v>1.021965515878661</v>
       </c>
       <c r="E22">
-        <v>0.9700384607048539</v>
+        <v>1.040227210938034</v>
       </c>
       <c r="F22">
-        <v>0.9700713283866724</v>
+        <v>1.043574772349739</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034492757079856</v>
+        <v>1.02720629128776</v>
       </c>
       <c r="J22">
-        <v>0.9964669926395417</v>
+        <v>1.023294397031885</v>
       </c>
       <c r="K22">
-        <v>1.007281753006799</v>
+        <v>1.025729703087814</v>
       </c>
       <c r="L22">
-        <v>0.9862277812253508</v>
+        <v>1.043920066220185</v>
       </c>
       <c r="M22">
-        <v>0.986259943379092</v>
+        <v>1.047254852031779</v>
       </c>
       <c r="N22">
-        <v>0.9978820900654516</v>
+        <v>1.024747592449178</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9661487801189246</v>
+        <v>1.016676722641924</v>
       </c>
       <c r="D23">
-        <v>0.9930218830890218</v>
+        <v>1.022225094647734</v>
       </c>
       <c r="E23">
-        <v>0.9725591802400129</v>
+        <v>1.040709285044842</v>
       </c>
       <c r="F23">
-        <v>0.9727581059198421</v>
+        <v>1.044086424872822</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035083504111719</v>
+        <v>1.027268297751917</v>
       </c>
       <c r="J23">
-        <v>0.9977514124962292</v>
+        <v>1.02352218581892</v>
       </c>
       <c r="K23">
-        <v>1.00841680727203</v>
+        <v>1.025918898035498</v>
       </c>
       <c r="L23">
-        <v>0.9883686335666954</v>
+        <v>1.044332362328167</v>
       </c>
       <c r="M23">
-        <v>0.9885634185176817</v>
+        <v>1.047696879788893</v>
       </c>
       <c r="N23">
-        <v>0.9991683339456605</v>
+        <v>1.024975704722419</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9741248381730613</v>
+        <v>1.018104198968022</v>
       </c>
       <c r="D24">
-        <v>0.9986942416904365</v>
+        <v>1.023245070085985</v>
       </c>
       <c r="E24">
-        <v>0.9822070387196035</v>
+        <v>1.042608194100086</v>
       </c>
       <c r="F24">
-        <v>0.9830385386759412</v>
+        <v>1.046101597311309</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037311025385859</v>
+        <v>1.027507512064716</v>
       </c>
       <c r="J24">
-        <v>1.002656646407322</v>
+        <v>1.024416580584777</v>
       </c>
       <c r="K24">
-        <v>1.012744326776475</v>
+        <v>1.026660253896207</v>
       </c>
       <c r="L24">
-        <v>0.9965539937662183</v>
+        <v>1.045955355998292</v>
       </c>
       <c r="M24">
-        <v>0.9973702110732022</v>
+        <v>1.049436782008236</v>
       </c>
       <c r="N24">
-        <v>1.004080533851545</v>
+        <v>1.025871369631432</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.982944454865528</v>
+        <v>1.019758382488281</v>
       </c>
       <c r="D25">
-        <v>1.004973195759182</v>
+        <v>1.024424602935537</v>
       </c>
       <c r="E25">
-        <v>0.9928883638040372</v>
+        <v>1.044813994078941</v>
       </c>
       <c r="F25">
-        <v>0.994414162424491</v>
+        <v>1.048441937200393</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039704154575098</v>
+        <v>1.027774942139128</v>
       </c>
       <c r="J25">
-        <v>1.008059762044467</v>
+        <v>1.025449524338988</v>
       </c>
       <c r="K25">
-        <v>1.017494796725958</v>
+        <v>1.027513316304579</v>
       </c>
       <c r="L25">
-        <v>1.005598091152321</v>
+        <v>1.0478384618179</v>
       </c>
       <c r="M25">
-        <v>1.007099814670138</v>
+        <v>1.051455259382623</v>
       </c>
       <c r="N25">
-        <v>1.009491322532641</v>
+        <v>1.026905780284254</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_122/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_122/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021075889624625</v>
+        <v>0.9896634371315446</v>
       </c>
       <c r="D2">
-        <v>1.025362066925665</v>
+        <v>1.009758349961288</v>
       </c>
       <c r="E2">
-        <v>1.046575217321456</v>
+        <v>1.001043006240024</v>
       </c>
       <c r="F2">
-        <v>1.050310168808472</v>
+        <v>1.003094093132678</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027980029273226</v>
+        <v>1.041468519634722</v>
       </c>
       <c r="J2">
-        <v>1.026269399659629</v>
+        <v>1.012157770564877</v>
       </c>
       <c r="K2">
-        <v>1.028187860595328</v>
+        <v>1.021083389111805</v>
       </c>
       <c r="L2">
-        <v>1.049340269291631</v>
+        <v>1.012487829429139</v>
       </c>
       <c r="M2">
-        <v>1.053064801641427</v>
+        <v>1.014510489973997</v>
       </c>
       <c r="N2">
-        <v>1.027726819921891</v>
+        <v>1.013595150695186</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022031439966696</v>
+        <v>0.9943749605693319</v>
       </c>
       <c r="D3">
-        <v>1.026040804710364</v>
+        <v>1.013113148257154</v>
       </c>
       <c r="E3">
-        <v>1.047855161132216</v>
+        <v>1.006774316281513</v>
       </c>
       <c r="F3">
-        <v>1.051667638027931</v>
+        <v>1.009191848625192</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028124167480241</v>
+        <v>1.042670373938337</v>
       </c>
       <c r="J3">
-        <v>1.026862381116127</v>
+        <v>1.015020153337331</v>
       </c>
       <c r="K3">
-        <v>1.028674234398509</v>
+        <v>1.023580948860243</v>
       </c>
       <c r="L3">
-        <v>1.050430667270378</v>
+        <v>1.017321246090478</v>
       </c>
       <c r="M3">
-        <v>1.054233287173958</v>
+        <v>1.019708453614697</v>
       </c>
       <c r="N3">
-        <v>1.028320643480074</v>
+        <v>1.016461598379508</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022649248253463</v>
+        <v>0.9973510898811299</v>
       </c>
       <c r="D4">
-        <v>1.026479088988873</v>
+        <v>1.015231447100922</v>
       </c>
       <c r="E4">
-        <v>1.04868391329289</v>
+        <v>1.010401568386573</v>
       </c>
       <c r="F4">
-        <v>1.052546475299208</v>
+        <v>1.013049753319985</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028215222617617</v>
+        <v>1.043412732739485</v>
       </c>
       <c r="J4">
-        <v>1.027245005041265</v>
+        <v>1.016822798625099</v>
       </c>
       <c r="K4">
-        <v>1.028987371963658</v>
+        <v>1.025149452995204</v>
       </c>
       <c r="L4">
-        <v>1.051136219262722</v>
+        <v>1.020376055900345</v>
       </c>
       <c r="M4">
-        <v>1.054989303450709</v>
+        <v>1.022993189900401</v>
       </c>
       <c r="N4">
-        <v>1.028703810775073</v>
+        <v>1.018266803630353</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022908855864591</v>
+        <v>0.998585545997612</v>
       </c>
       <c r="D5">
-        <v>1.026663126212781</v>
+        <v>1.016109815039161</v>
       </c>
       <c r="E5">
-        <v>1.049032452619543</v>
+        <v>1.011907897634209</v>
       </c>
       <c r="F5">
-        <v>1.05291605156019</v>
+        <v>1.014651565132393</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028252972082331</v>
+        <v>1.043716548868427</v>
       </c>
       <c r="J5">
-        <v>1.027405602504602</v>
+        <v>1.017569171026238</v>
       </c>
       <c r="K5">
-        <v>1.029118636363912</v>
+        <v>1.025797795255271</v>
       </c>
       <c r="L5">
-        <v>1.051432832982444</v>
+        <v>1.021643647719077</v>
       </c>
       <c r="M5">
-        <v>1.055307117109532</v>
+        <v>1.024356068319058</v>
       </c>
       <c r="N5">
-        <v>1.028864636305229</v>
+        <v>1.01901423596591</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022952438144353</v>
+        <v>0.998791855218464</v>
       </c>
       <c r="D6">
-        <v>1.026694014090774</v>
+        <v>1.016256594694467</v>
       </c>
       <c r="E6">
-        <v>1.049090981698313</v>
+        <v>1.012159753071853</v>
       </c>
       <c r="F6">
-        <v>1.052978111729652</v>
+        <v>1.014919367266225</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028259279280386</v>
+        <v>1.043767081036431</v>
       </c>
       <c r="J6">
-        <v>1.027432552407368</v>
+        <v>1.017693829215078</v>
       </c>
       <c r="K6">
-        <v>1.029140654011613</v>
+        <v>1.025906015755329</v>
       </c>
       <c r="L6">
-        <v>1.051482635760071</v>
+        <v>1.021855526875428</v>
       </c>
       <c r="M6">
-        <v>1.055360478555462</v>
+        <v>1.02458386737504</v>
       </c>
       <c r="N6">
-        <v>1.028891624479948</v>
+        <v>1.019139071183677</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022652717610761</v>
+        <v>0.9973676495549683</v>
       </c>
       <c r="D7">
-        <v>1.026481548959085</v>
+        <v>1.015243231184178</v>
       </c>
       <c r="E7">
-        <v>1.048688569971656</v>
+        <v>1.010421767848541</v>
       </c>
       <c r="F7">
-        <v>1.052551413148492</v>
+        <v>1.013071234374207</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028215729111551</v>
+        <v>1.043416824610397</v>
       </c>
       <c r="J7">
-        <v>1.027247151965218</v>
+        <v>1.016832816215376</v>
       </c>
       <c r="K7">
-        <v>1.028989127413632</v>
+        <v>1.025158159192995</v>
       </c>
       <c r="L7">
-        <v>1.051140182628998</v>
+        <v>1.020393057974169</v>
       </c>
       <c r="M7">
-        <v>1.054993550151551</v>
+        <v>1.023011470532341</v>
       </c>
       <c r="N7">
-        <v>1.028705960747904</v>
+        <v>1.018276835446756</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021398925129132</v>
+        <v>0.9912711473950815</v>
       </c>
       <c r="D8">
-        <v>1.025591636239618</v>
+        <v>1.010903233767567</v>
       </c>
       <c r="E8">
-        <v>1.047007669076055</v>
+        <v>1.002997316478391</v>
       </c>
       <c r="F8">
-        <v>1.050768837040347</v>
+        <v>1.005173622771953</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028029199104545</v>
+        <v>1.041882120253987</v>
       </c>
       <c r="J8">
-        <v>1.026470022846452</v>
+        <v>1.013135621099151</v>
       </c>
       <c r="K8">
-        <v>1.028352559408285</v>
+        <v>1.021937511818074</v>
       </c>
       <c r="L8">
-        <v>1.049708777144681</v>
+        <v>1.014136839706258</v>
       </c>
       <c r="M8">
-        <v>1.053459712700611</v>
+        <v>1.016283967152837</v>
       </c>
       <c r="N8">
-        <v>1.027927728016651</v>
+        <v>1.014574389889392</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019185781291819</v>
+        <v>0.9799410583258231</v>
       </c>
       <c r="D9">
-        <v>1.024016610580602</v>
+        <v>1.002834478141952</v>
       </c>
       <c r="E9">
-        <v>1.044049778065955</v>
+        <v>0.9892486778077797</v>
       </c>
       <c r="F9">
-        <v>1.047631172954742</v>
+        <v>0.9905386512214361</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027683593521821</v>
+        <v>1.038898330576681</v>
       </c>
       <c r="J9">
-        <v>1.025092405115136</v>
+        <v>1.006222591656923</v>
       </c>
       <c r="K9">
-        <v>1.027218781733771</v>
+        <v>1.015881734703666</v>
       </c>
       <c r="L9">
-        <v>1.047186318117073</v>
+        <v>1.002518629902092</v>
       </c>
       <c r="M9">
-        <v>1.050756269410039</v>
+        <v>1.003787120333731</v>
       </c>
       <c r="N9">
-        <v>1.026548153910142</v>
+        <v>1.00765154315242</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017707795927658</v>
+        <v>0.9719449158926796</v>
       </c>
       <c r="D10">
-        <v>1.02296201691735</v>
+        <v>0.9971432146015392</v>
       </c>
       <c r="E10">
-        <v>1.042080464121078</v>
+        <v>0.9795695118766561</v>
       </c>
       <c r="F10">
-        <v>1.045541596457992</v>
+        <v>0.9802285676355971</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027441848423023</v>
+        <v>1.036707716136714</v>
       </c>
       <c r="J10">
-        <v>1.024168485045393</v>
+        <v>1.001317612867997</v>
       </c>
       <c r="K10">
-        <v>1.02645485471853</v>
+        <v>1.011564241475216</v>
       </c>
       <c r="L10">
-        <v>1.045504477662009</v>
+        <v>0.9943177100336156</v>
       </c>
       <c r="M10">
-        <v>1.048953446877787</v>
+        <v>0.9949642191747268</v>
       </c>
       <c r="N10">
-        <v>1.025622921767925</v>
+        <v>1.002739598731006</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017067204313006</v>
+        <v>0.9683656292194029</v>
       </c>
       <c r="D11">
-        <v>1.02250429107664</v>
+        <v>0.9945976667247556</v>
       </c>
       <c r="E11">
-        <v>1.04122832109892</v>
+        <v>0.9752401254419514</v>
       </c>
       <c r="F11">
-        <v>1.044637279102023</v>
+        <v>0.975615316751007</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027334486340885</v>
+        <v>1.03570802078304</v>
       </c>
       <c r="J11">
-        <v>1.023767113526774</v>
+        <v>0.9991163342484913</v>
       </c>
       <c r="K11">
-        <v>1.026122157257685</v>
+        <v>1.009622187364342</v>
       </c>
       <c r="L11">
-        <v>1.044776150001431</v>
+        <v>0.9906445860505398</v>
       </c>
       <c r="M11">
-        <v>1.048172655415035</v>
+        <v>0.9910122246816266</v>
       </c>
       <c r="N11">
-        <v>1.025220980255711</v>
+        <v>1.00053519404337</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016829167532578</v>
+        <v>0.9670174474113097</v>
       </c>
       <c r="D12">
-        <v>1.0223341098291</v>
+        <v>0.9936392703023441</v>
       </c>
       <c r="E12">
-        <v>1.040911882302744</v>
+        <v>0.9736096752117454</v>
       </c>
       <c r="F12">
-        <v>1.044301445321868</v>
+        <v>0.9738777116012273</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027294204344689</v>
+        <v>1.03532868973779</v>
       </c>
       <c r="J12">
-        <v>1.023617829855535</v>
+        <v>0.9982863887469654</v>
       </c>
       <c r="K12">
-        <v>1.02599829178995</v>
+        <v>1.008889354939987</v>
       </c>
       <c r="L12">
-        <v>1.04450560252284</v>
+        <v>0.9892605599773115</v>
       </c>
       <c r="M12">
-        <v>1.047882608854049</v>
+        <v>0.9895230892444228</v>
       </c>
       <c r="N12">
-        <v>1.025071484584535</v>
+        <v>0.999704069924035</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016880231421524</v>
+        <v>0.9673075009971138</v>
       </c>
       <c r="D13">
-        <v>1.022370621580419</v>
+        <v>0.9938454431756288</v>
       </c>
       <c r="E13">
-        <v>1.040979755689764</v>
+        <v>0.9739604490593984</v>
       </c>
       <c r="F13">
-        <v>1.044373479684499</v>
+        <v>0.9742515500604124</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027302863196618</v>
+        <v>1.035410424906306</v>
       </c>
       <c r="J13">
-        <v>1.023649860596635</v>
+        <v>0.9984649824631897</v>
       </c>
       <c r="K13">
-        <v>1.026024874325386</v>
+        <v>1.009047078532235</v>
       </c>
       <c r="L13">
-        <v>1.044563636551234</v>
+        <v>0.9895583507501647</v>
       </c>
       <c r="M13">
-        <v>1.047944826030949</v>
+        <v>0.9898434968493282</v>
       </c>
       <c r="N13">
-        <v>1.025103560812963</v>
+        <v>0.9998829172638215</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017047530007631</v>
+        <v>0.968254575833403</v>
       </c>
       <c r="D14">
-        <v>1.022490227131749</v>
+        <v>0.994518711915124</v>
       </c>
       <c r="E14">
-        <v>1.041202162448581</v>
+        <v>0.975105816812624</v>
       </c>
       <c r="F14">
-        <v>1.044609517565214</v>
+        <v>0.9754721863317621</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027331164835882</v>
+        <v>1.035676830273883</v>
       </c>
       <c r="J14">
-        <v>1.02375477769828</v>
+        <v>0.9990479855136177</v>
       </c>
       <c r="K14">
-        <v>1.026111924347963</v>
+        <v>1.009561848583893</v>
       </c>
       <c r="L14">
-        <v>1.044753786763931</v>
+        <v>0.9905305912690385</v>
       </c>
       <c r="M14">
-        <v>1.048148680615827</v>
+        <v>0.9908895731740236</v>
       </c>
       <c r="N14">
-        <v>1.025208626908926</v>
+        <v>1.000466748245453</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017150595918803</v>
+        <v>0.96883559034404</v>
       </c>
       <c r="D15">
-        <v>1.022563898682307</v>
+        <v>0.9949318091209004</v>
       </c>
       <c r="E15">
-        <v>1.041339205789619</v>
+        <v>0.9758085086696274</v>
       </c>
       <c r="F15">
-        <v>1.04475495748432</v>
+        <v>0.9762210228313677</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027348549029351</v>
+        <v>1.035839901473352</v>
       </c>
       <c r="J15">
-        <v>1.023819394562758</v>
+        <v>0.9994055431589356</v>
       </c>
       <c r="K15">
-        <v>1.026165520746784</v>
+        <v>1.00987747812017</v>
       </c>
       <c r="L15">
-        <v>1.044870942644225</v>
+        <v>0.9911269733137916</v>
       </c>
       <c r="M15">
-        <v>1.048274278662804</v>
+        <v>0.9915312430665456</v>
       </c>
       <c r="N15">
-        <v>1.025273335536762</v>
+        <v>1.00082481366364</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017750296921316</v>
+        <v>0.9721799055808532</v>
       </c>
       <c r="D16">
-        <v>1.022992371986897</v>
+        <v>0.9973103878020911</v>
       </c>
       <c r="E16">
-        <v>1.04213703011396</v>
+        <v>0.9798537970163727</v>
       </c>
       <c r="F16">
-        <v>1.045601622976282</v>
+        <v>0.9805314577779667</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027448917160966</v>
+        <v>1.036772958722068</v>
       </c>
       <c r="J16">
-        <v>1.024195095201164</v>
+        <v>1.001462018437266</v>
       </c>
       <c r="K16">
-        <v>1.026476894507256</v>
+        <v>1.011691553331308</v>
       </c>
       <c r="L16">
-        <v>1.045552812505205</v>
+        <v>0.9945588010039008</v>
       </c>
       <c r="M16">
-        <v>1.049005261931772</v>
+        <v>0.9952236091960507</v>
       </c>
       <c r="N16">
-        <v>1.025649569713169</v>
+        <v>1.002884209372747</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018126308900853</v>
+        <v>0.9742456521390422</v>
       </c>
       <c r="D17">
-        <v>1.023260853399593</v>
+        <v>0.9987802150517018</v>
       </c>
       <c r="E17">
-        <v>1.042637638525161</v>
+        <v>0.9823532355598554</v>
       </c>
       <c r="F17">
-        <v>1.04613284134947</v>
+        <v>0.9831942828708087</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027511156932928</v>
+        <v>1.037344333394222</v>
       </c>
       <c r="J17">
-        <v>1.024430412162059</v>
+        <v>1.002730819234712</v>
       </c>
       <c r="K17">
-        <v>1.026671699455037</v>
+        <v>1.012809665372103</v>
       </c>
       <c r="L17">
-        <v>1.045980508586213</v>
+        <v>0.9966779167603237</v>
       </c>
       <c r="M17">
-        <v>1.049463744731829</v>
+        <v>0.9975035364524826</v>
       </c>
       <c r="N17">
-        <v>1.02588522085114</v>
+        <v>1.004154812012858</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018345571083418</v>
+        <v>0.9754393675842068</v>
       </c>
       <c r="D18">
-        <v>1.023417349828975</v>
+        <v>0.9996297544415116</v>
       </c>
       <c r="E18">
-        <v>1.042929691353049</v>
+        <v>0.9837978896221651</v>
       </c>
       <c r="F18">
-        <v>1.046442738823255</v>
+        <v>0.9847332158370629</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027547201260591</v>
+        <v>1.037672694557769</v>
       </c>
       <c r="J18">
-        <v>1.024567542352032</v>
+        <v>1.003463470112125</v>
       </c>
       <c r="K18">
-        <v>1.026785141373951</v>
+        <v>1.013454881867866</v>
       </c>
       <c r="L18">
-        <v>1.046229968936803</v>
+        <v>0.9979022787349551</v>
       </c>
       <c r="M18">
-        <v>1.049731154952189</v>
+        <v>0.9988207822453262</v>
       </c>
       <c r="N18">
-        <v>1.026022545781712</v>
+        <v>1.004888503338553</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018420323780328</v>
+        <v>0.9758445262826323</v>
       </c>
       <c r="D19">
-        <v>1.023470693364078</v>
+        <v>0.9999181241764259</v>
       </c>
       <c r="E19">
-        <v>1.043029283464703</v>
+        <v>0.9842882807848307</v>
       </c>
       <c r="F19">
-        <v>1.046548413868462</v>
+        <v>0.9852555835859538</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02755944748741</v>
+        <v>1.037783833217122</v>
       </c>
       <c r="J19">
-        <v>1.024614278792123</v>
+        <v>1.003712045996076</v>
       </c>
       <c r="K19">
-        <v>1.026823790826721</v>
+        <v>1.013673720034573</v>
       </c>
       <c r="L19">
-        <v>1.046315027257829</v>
+        <v>0.998317811226926</v>
       </c>
       <c r="M19">
-        <v>1.049822332442568</v>
+        <v>0.9992678331511973</v>
       </c>
       <c r="N19">
-        <v>1.026069348592908</v>
+        <v>1.005137432228771</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01808597250348</v>
+        <v>0.9740251832388278</v>
       </c>
       <c r="D20">
-        <v>1.023232058661052</v>
+        <v>0.9986233264909027</v>
       </c>
       <c r="E20">
-        <v>1.0425839221633</v>
+        <v>0.9820864482680591</v>
       </c>
       <c r="F20">
-        <v>1.046075841824926</v>
+        <v>0.9829100722005016</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027504505988919</v>
+        <v>1.037283540568347</v>
       </c>
       <c r="J20">
-        <v>1.024405177933024</v>
+        <v>1.002595460943459</v>
       </c>
       <c r="K20">
-        <v>1.026650817809298</v>
+        <v>1.012690426313885</v>
       </c>
       <c r="L20">
-        <v>1.04593462163957</v>
+        <v>0.9964517732387236</v>
       </c>
       <c r="M20">
-        <v>1.049414555437653</v>
+        <v>0.9972602346257931</v>
       </c>
       <c r="N20">
-        <v>1.025859950786605</v>
+        <v>1.004019261497305</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016998267300286</v>
+        <v>0.967976210844711</v>
       </c>
       <c r="D21">
-        <v>1.022455010730013</v>
+        <v>0.9943208118820248</v>
       </c>
       <c r="E21">
-        <v>1.041136666873468</v>
+        <v>0.974769164006512</v>
       </c>
       <c r="F21">
-        <v>1.044540008382551</v>
+        <v>0.9751134171159894</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027322841828184</v>
+        <v>1.03559860403617</v>
       </c>
       <c r="J21">
-        <v>1.023723887648199</v>
+        <v>0.9988766506183673</v>
       </c>
       <c r="K21">
-        <v>1.02608629820006</v>
+        <v>1.009410582980151</v>
       </c>
       <c r="L21">
-        <v>1.04469779267407</v>
+        <v>0.9902448447607443</v>
       </c>
       <c r="M21">
-        <v>1.048088651252705</v>
+        <v>0.9905821267059595</v>
       </c>
       <c r="N21">
-        <v>1.025177692991431</v>
+        <v>1.000295170034999</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016313848369878</v>
+        <v>0.9640643087993642</v>
       </c>
       <c r="D22">
-        <v>1.021965515878661</v>
+        <v>0.9915408349482596</v>
       </c>
       <c r="E22">
-        <v>1.040227210938034</v>
+        <v>0.9700384607048543</v>
       </c>
       <c r="F22">
-        <v>1.043574772349739</v>
+        <v>0.970071328386673</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02720629128776</v>
+        <v>1.034492757079856</v>
       </c>
       <c r="J22">
-        <v>1.023294397031885</v>
+        <v>0.9964669926395421</v>
       </c>
       <c r="K22">
-        <v>1.025729703087814</v>
+        <v>1.0072817530068</v>
       </c>
       <c r="L22">
-        <v>1.043920066220185</v>
+        <v>0.9862277812253514</v>
       </c>
       <c r="M22">
-        <v>1.047254852031779</v>
+        <v>0.9862599433790924</v>
       </c>
       <c r="N22">
-        <v>1.024747592449178</v>
+        <v>0.997882090065452</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016676722641924</v>
+        <v>0.9661487801189241</v>
       </c>
       <c r="D23">
-        <v>1.022225094647734</v>
+        <v>0.9930218830890216</v>
       </c>
       <c r="E23">
-        <v>1.040709285044842</v>
+        <v>0.9725591802400126</v>
       </c>
       <c r="F23">
-        <v>1.044086424872822</v>
+        <v>0.9727581059198416</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027268297751917</v>
+        <v>1.035083504111719</v>
       </c>
       <c r="J23">
-        <v>1.02352218581892</v>
+        <v>0.9977514124962289</v>
       </c>
       <c r="K23">
-        <v>1.025918898035498</v>
+        <v>1.00841680727203</v>
       </c>
       <c r="L23">
-        <v>1.044332362328167</v>
+        <v>0.9883686335666951</v>
       </c>
       <c r="M23">
-        <v>1.047696879788893</v>
+        <v>0.9885634185176813</v>
       </c>
       <c r="N23">
-        <v>1.024975704722419</v>
+        <v>0.9991683339456602</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018104198968022</v>
+        <v>0.9741248381730612</v>
       </c>
       <c r="D24">
-        <v>1.023245070085985</v>
+        <v>0.9986942416904362</v>
       </c>
       <c r="E24">
-        <v>1.042608194100086</v>
+        <v>0.9822070387196036</v>
       </c>
       <c r="F24">
-        <v>1.046101597311309</v>
+        <v>0.983038538675941</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027507512064716</v>
+        <v>1.037311025385859</v>
       </c>
       <c r="J24">
-        <v>1.024416580584777</v>
+        <v>1.002656646407322</v>
       </c>
       <c r="K24">
-        <v>1.026660253896207</v>
+        <v>1.012744326776475</v>
       </c>
       <c r="L24">
-        <v>1.045955355998292</v>
+        <v>0.9965539937662183</v>
       </c>
       <c r="M24">
-        <v>1.049436782008236</v>
+        <v>0.9973702110732023</v>
       </c>
       <c r="N24">
-        <v>1.025871369631432</v>
+        <v>1.004080533851545</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019758382488281</v>
+        <v>0.9829444548655288</v>
       </c>
       <c r="D25">
-        <v>1.024424602935537</v>
+        <v>1.004973195759183</v>
       </c>
       <c r="E25">
-        <v>1.044813994078941</v>
+        <v>0.9928883638040376</v>
       </c>
       <c r="F25">
-        <v>1.048441937200393</v>
+        <v>0.9944141624244918</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027774942139128</v>
+        <v>1.039704154575098</v>
       </c>
       <c r="J25">
-        <v>1.025449524338988</v>
+        <v>1.008059762044468</v>
       </c>
       <c r="K25">
-        <v>1.027513316304579</v>
+        <v>1.017494796725959</v>
       </c>
       <c r="L25">
-        <v>1.0478384618179</v>
+        <v>1.005598091152321</v>
       </c>
       <c r="M25">
-        <v>1.051455259382623</v>
+        <v>1.007099814670139</v>
       </c>
       <c r="N25">
-        <v>1.026905780284254</v>
+        <v>1.009491322532642</v>
       </c>
     </row>
   </sheetData>
